--- a/topo/VMList.xlsx
+++ b/topo/VMList.xlsx
@@ -19,13 +19,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>VM_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物理节点id</t>
+    <t>VM_request_CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VM_request_Memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalNode_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VM_reliabillity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -351,227 +363,465 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D2" sqref="D2:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>25</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>